--- a/数据整理/stocks/A股/深证主板/000516-国际医学.xlsx
+++ b/数据整理/stocks/A股/深证主板/000516-国际医学.xlsx
@@ -451,1079 +451,1459 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2674</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5668</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8846</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8674</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6511</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5047</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4833</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1680</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0451</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7535</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5269</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4876</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4521</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4401</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4355</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2976</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2602</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2086</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003769</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001696</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方智造未来股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>006540</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>南方绩优成长混合C</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>84.79</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>3.25</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>270050</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发新经济混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008135</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宸未来价值先锋混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>91.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>165516</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>信诚周期轮动混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>86.18</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009789</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富安达科技创新混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010025</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发聚丰混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010134</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发新经济混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>163801</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中银中国混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>89.14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009664</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富医疗积极成长一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>79.95</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009665</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富医疗积极成长一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>79.95</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>163809</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中银蓝筹精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>79.40</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>163805</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中银动态策略混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>89.75</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>202003</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方绩优成长混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>84.79</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>398001</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中海优质成长混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>550002</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>信诚精萃成长混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>88.24</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>550008</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>信诚优胜精选混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>83.71</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009411</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中银科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>163818</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>88.82</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>270005</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>广发聚丰混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>398011</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中海分红增利混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>000878</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中海医药健康产业精选灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>000879</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中海医药健康产业精选灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001252</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中海进取收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>550001</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>信诚四季红混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>86.26</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>162413</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华宝中证1000指数</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001574</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中海混改红利主题精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>90.87</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007750</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>广发优势增长股票</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001696</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>南方智造未来股票</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002160</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>南方转型驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002213</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中海顺鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>87.62</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>003769</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>中银品质生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>89.83</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>004549</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>富安达消费主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>006267</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>诺德量化核心灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>006268</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>诺德量化核心灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>006209</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>501062</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>86.39</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>005347</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>诺德量化优选6个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>7.78</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1533,7 +1913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1554,15 +1934,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003769</t>
+          <t>009664</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银品质生活灵活配置混合</t>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>66.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1975</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004683</t>
+          <t>010595</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信高端医疗股票</t>
+          <t>广发成长精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.12</t>
+          <t>112.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>51.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1731</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>270050</t>
+          <t>270005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发新经济混合A</t>
+          <t>广发聚丰混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>58.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4884</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010134</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发新经济混合C</t>
+          <t>南方绩优成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>63.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9573</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>399011</t>
+          <t>398001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中海医疗保健主题股票</t>
+          <t>中海优质成长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>15.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4617</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004549</t>
+          <t>163801</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富安达消费主题灵活配置混合</t>
+          <t>中银中国混合(LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>15.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.37</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4174</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1742,25 +2192,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512100</t>
+          <t>550008</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方中证1000ETF</t>
+          <t>信诚优胜精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>30.38</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2425</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>165516</t>
+          <t>005347</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>信诚周期轮动混合(LOF)</t>
+          <t>诺德量化优选6个月持有期混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>70.18</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9760</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006209</t>
+          <t>270050</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
+          <t>广发新经济混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>83.91</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9675</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005290</t>
+          <t>399011</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合A</t>
+          <t>中海医疗保健主题股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6748</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009710</t>
+          <t>010405</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合C</t>
+          <t>惠升医药健康6个月持有期混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>21.96</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6676</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1882,25 +2382,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>163801</t>
+          <t>165516</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中银中国混合(LOF)</t>
+          <t>信诚周期轮动混合(LOF)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6539</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501062</t>
+          <t>009411</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
+          <t>中银科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.01</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6378</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>202007</t>
+          <t>001558</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方隆元产业主题混合</t>
+          <t>天弘医疗健康混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>78.81</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6333</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006267</t>
+          <t>550002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>诺德量化核心灵活配置混合A</t>
+          <t>信诚精萃成长混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.80</t>
+          <t>15.77</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6213</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006268</t>
+          <t>163805</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>诺德量化核心灵活配置混合C</t>
+          <t>中银动态策略混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.80</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6185</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005630</t>
+          <t>501062</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华安研究精选混合</t>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>80.95</t>
+          <t>20.54</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>44.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5874</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009789</t>
+          <t>000878</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富安达科技创新混合</t>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5151</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009913</t>
+          <t>010654</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中信保诚成长动力混合</t>
+          <t>天弘医药创新混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>82.25</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4764</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>270005</t>
+          <t>202007</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>广发聚丰混合A</t>
+          <t>南方隆元产业主题混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4660</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010025</t>
+          <t>200006</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广发聚丰混合C</t>
+          <t>长城消费增值混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>14.59</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4158</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>360005</t>
+          <t>001559</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>光大保德信红利混合</t>
+          <t>天弘医疗健康混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>78.43</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006486</t>
+          <t>007750</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>广发中证1000指数A</t>
+          <t>广发优势增长股票</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3458</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>006487</t>
+          <t>163809</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广发中证1000指数C</t>
+          <t>中银蓝筹精选灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3426</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>398001</t>
+          <t>009665</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中海优质成长混合</t>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>81.65</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>9.31</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3323</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>398011</t>
+          <t>550001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中海分红增利混合</t>
+          <t>信诚四季红混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>90.16</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3022</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>000878</t>
+          <t>004905</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中海医药健康产业精选灵活配置混合 - A</t>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>86.60</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>000879</t>
+          <t>398011</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中海医药健康产业精选灵活配置混合 - C</t>
+          <t>中海分红增利混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>86.60</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>000955</t>
+          <t>004040</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>南方产业活力股票</t>
+          <t>金鹰医疗健康产业股票A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>87.47</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010405</t>
+          <t>006267</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>惠升医药健康6个月持有期混合</t>
+          <t>诺德量化核心灵活配置混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>34.83</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>010595</t>
+          <t>000955</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>广发成长精选混合A</t>
+          <t>南方产业活力股票</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>51.23</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>8</v>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>010596</t>
+          <t>009913</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>广发成长精选混合C</t>
+          <t>中信保诚成长动力混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>51.23</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>8</v>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>010654</t>
+          <t>005630</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天弘医药创新混合A</t>
+          <t>华安研究精选混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>5</v>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>010655</t>
+          <t>360005</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天弘医药创新混合C</t>
+          <t>光大保德信红利混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>5</v>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>001252</t>
+          <t>010596</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中海进取收益灵活配置混合</t>
+          <t>广发成长精选混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>9.26</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
+          <t>51.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>001298</t>
+          <t>000879</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金鹰民族新兴灵活配置混合</t>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>88.31</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>4</v>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>001558</t>
+          <t>004041</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天弘医疗健康混合A</t>
+          <t>金鹰医疗健康产业股票C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>5</v>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -2610,25 +3370,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>001559</t>
+          <t>010655</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天弘医疗健康混合C</t>
+          <t>天弘医药创新混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2638,26 +3408,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>001574</t>
+          <t>004683</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中海混改红利主题精选灵活配置混合</t>
+          <t>建信高端医疗股票</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>4</v>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -2666,26 +3446,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>001864</t>
+          <t>006209</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中海魅力长三角灵活配置混合</t>
+          <t>中信保诚新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>68.27</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>5</v>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2694,26 +3484,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>550001</t>
+          <t>003769</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>信诚四季红混合</t>
+          <t>中银品质生活灵活配置混合</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>87.55</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2722,25 +3522,35 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>550002</t>
+          <t>001298</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>信诚精萃成长混合</t>
+          <t>金鹰民族新兴灵活配置混合</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>82.34</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2750,26 +3560,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>550008</t>
+          <t>006268</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>信诚优胜精选混合</t>
+          <t>诺德量化核心灵活配置混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>81.69</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>3</v>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2778,26 +3598,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>570006</t>
+          <t>009789</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>诺德中小盘混合</t>
+          <t>富安达科技创新混合</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>6</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -2806,25 +3636,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>620002</t>
+          <t>001864</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金元顺安成长动力混合</t>
+          <t>中海魅力长三角灵活配置混合</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>74.87</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2834,26 +3674,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>620004</t>
+          <t>004549</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金元顺安价值增长混合</t>
+          <t>富安达消费主题灵活配置混合</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>83.89</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>4</v>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2862,26 +3712,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>005313</t>
+          <t>620002</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强A</t>
+          <t>金元顺安成长动力混合</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2890,26 +3750,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>005314</t>
+          <t>512100</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强C</t>
+          <t>南方中证1000ETF</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>1</v>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -2918,26 +3788,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>005347</t>
+          <t>570006</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>诺德量化优选6个月持有期混合</t>
+          <t>诺德中小盘混合</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>9.26</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -2946,26 +3826,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>200006</t>
+          <t>010134</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>长城消费增值混合</t>
+          <t>广发新经济混合C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>10</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -2974,26 +3864,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>001252</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>南方绩优成长混合A</t>
+          <t>中海进取收益灵活配置混合</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>77.85</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>6</v>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -3002,26 +3902,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>006540</t>
+          <t>002919</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>南方绩优成长混合C</t>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>77.85</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>6</v>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -3030,26 +3940,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>002919</t>
+          <t>005313</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>东吴智慧医疗量化策略灵活配置混合</t>
+          <t>万家中证1000指数增强A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>84.36</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>8</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -3058,26 +3978,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>007750</t>
+          <t>620004</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>广发优势增长股票</t>
+          <t>金元顺安价值增长混合</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>7</v>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -3086,26 +4016,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>004040</t>
+          <t>005314</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金鹰医疗健康产业股票A</t>
+          <t>万家中证1000指数增强C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>89.54</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>4</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3114,26 +4054,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>004041</t>
+          <t>006540</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金鹰医疗健康产业股票C</t>
+          <t>南方绩优成长混合C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>89.54</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>4</v>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -3142,25 +4092,35 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>004905</t>
+          <t>010031</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华泰柏瑞生物医药灵活配置混合A</t>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>90.74</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>3.79</t>
         </is>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3170,26 +4130,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>010031</t>
+          <t>001574</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华泰柏瑞生物医药灵活配置混合C</t>
+          <t>中海混改红利主题精选灵活配置混合</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>9</v>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3198,26 +4168,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>009664</t>
+          <t>010025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>汇添富医疗积极成长一年持有期混合A</t>
+          <t>广发聚丰混合C</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>79.42</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>5</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="61">
@@ -3226,26 +4206,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>009665</t>
+          <t>005290</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>汇添富医疗积极成长一年持有期混合C</t>
+          <t>诺德新盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>79.42</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>5</v>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -3254,25 +4244,35 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>162413</t>
+          <t>006486</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>华宝中证1000指数</t>
+          <t>广发中证1000指数A</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3282,26 +4282,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>163805</t>
+          <t>006487</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中银动态策略混合</t>
+          <t>广发中证1000指数C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>88.12</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>2</v>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -3310,26 +4320,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>163809</t>
+          <t>162413</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中银蓝筹精选灵活配置混合</t>
+          <t>华宝中证1000指数</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>79.27</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>9.65</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>1</v>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -3338,26 +4358,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>009411</t>
+          <t>009710</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中银科技创新一年定期开放混合</t>
+          <t>诺德新盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>3</v>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000516-国际医学.xlsx
+++ b/数据整理/stocks/A股/深证主板/000516-国际医学.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4393,4 +4394,2490 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3610</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3856</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8722</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8798</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2239</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1807</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1132</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8546</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7075</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7055</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6593</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6556</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5913</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4893</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3823</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3733</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3381</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3173</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3099</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3040</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>71.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003769</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008441</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰科新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008442</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>九泰科新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000516-国际医学.xlsx
+++ b/数据整理/stocks/A股/深证主板/000516-国际医学.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6880,4 +6881,934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4195</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1380</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6796</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5770</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4264</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3985</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3232</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2908</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003769</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000516-国际医学.xlsx
+++ b/数据整理/stocks/A股/深证主板/000516-国际医学.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7811,4 +7812,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000516-国际医学.xlsx
+++ b/数据整理/stocks/A股/深证主板/000516-国际医学.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7820,7 +7821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7831,17 +7832,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7851,14 +7872,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.03</v>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3123</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -7867,14 +7910,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.97</v>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7655</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -7883,14 +7948,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>64</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.59</v>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1622</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -7899,13 +7986,949 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5055</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3202</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2776</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2674</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2238</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003769</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>37</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>21.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000516-国际医学.xlsx
+++ b/数据整理/stocks/A股/深证主板/000516-国际医学.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8827,7 +8828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8838,17 +8839,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8858,14 +8879,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.07</v>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1348</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -8874,14 +8917,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.03</v>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2338</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -8890,14 +8955,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>64</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29.97</v>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0764</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -8906,14 +8993,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>64</v>
-      </c>
-      <c r="D5" t="n">
-        <v>28.59</v>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7751</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -8922,13 +9031,885 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5828</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5198</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4242</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014628</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014537</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银中国混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>64</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28.59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>37</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>21.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000516-国际医学.xlsx
+++ b/数据整理/stocks/A股/深证主板/000516-国际医学.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>8.34</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>9.07</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>11.03</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>29.97</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>64</v>
       </c>
       <c r="D6" t="n">
-        <v>28.59</v>
+        <v>29.97</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>64</v>
+      </c>
+      <c r="D7" t="n">
+        <v>28.59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>37</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>21.65</v>
       </c>
     </row>
@@ -583,6 +600,1654 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5826</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3653</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9799</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银中国混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5887</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5170</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4865</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4792</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1859</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013293</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城健康消费混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012075</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达稳健添利混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>57.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012076</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达稳健添利混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015562</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015254</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015365</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银动态策略混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014537</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银中国混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015171</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1546,7 +3211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2552,7 +4217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3475,2492 +5140,6 @@
       </c>
       <c r="H24" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H65"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010595</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发成长精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>101.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.3610</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>270005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发聚丰混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>68.12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.3856</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009664</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富医疗积极成长一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>81.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.8722</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011425</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发优势成长股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>32.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.8798</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>270050</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发新经济混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>33.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.5056</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>163801</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银中国混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>16.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.86</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.71</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.4006</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>550008</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>信诚优胜精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>34.87</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>83.07</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.2239</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000294</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安生态优先混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>31.74</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.52</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.1807</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>398001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中海优质成长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>16.69</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.1132</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>165516</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>信诚周期轮动混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>17.62</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.03</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.8546</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001558</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>天弘医疗健康混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8.67</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.7075</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009411</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中银科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8.30</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.7055</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>550002</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>信诚精萃成长混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>86.27</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.6593</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010654</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>天弘医药创新混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>8.73</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.6556</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>163805</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中银动态策略混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.5913</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005347</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>诺德量化优选6个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>8.63</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.4893</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001559</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>天弘医疗健康混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>8.67</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.3823</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>010090</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中信建投医药健康混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>7.81</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.3733</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>163809</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中银蓝筹精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>79.64</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>8.72</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.3523</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>090020</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>大成健康产业混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.3381</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011426</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发优势成长股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.3173</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>398011</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中海分红增利混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.3099</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009665</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>汇添富医疗积极成长一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8.66</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>86.72</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.3040</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>000878</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中海医药健康产业精选灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>71.37</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.2999</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>010596</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>广发成长精选混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2809</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006267</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>诺德量化核心灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2721</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004040</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>金鹰医疗健康产业股票A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2564</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>010655</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>天弘医药创新混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2381</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>550001</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>信诚四季红混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1980</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>240011</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华宝大盘精选混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1618</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>519673</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>银河康乐股票</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1521</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>004683</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>建信高端医疗股票</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>92.04</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1401</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>004041</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>金鹰医疗健康产业股票C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1311</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>010091</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中信建投医药健康混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1176</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>010134</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>广发新经济混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0978</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>540009</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>汇丰晋信消费红利股票</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>91.49</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0834</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>000879</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中海医药健康产业精选灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>71.37</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0688</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>006268</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>诺德量化核心灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0684</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>001365</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>大成正向回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0670</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>83.06</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0585</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>003769</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>中银品质生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>84.66</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>8.70</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0522</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>512100</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>南方中证1000ETF</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0439</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>910017</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>东方红多元策略混合A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0288</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>003284</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>中邮医药健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>80.46</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0245</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>910011</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>东方红启瑞三年持有混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>010447</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>中邮未来成长混合A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>29.80</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>001252</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>中海进取收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>91.86</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>570006</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>诺德中小盘混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>92.41</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>620004</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>金元顺安价值增长混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>516610</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>84.84</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>159873</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>天弘中证全指医疗保健设备与服务ETF</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>97.32</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>010025</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>广发聚丰混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>001574</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>中海混改红利主题精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>91.17</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>159845</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>华夏中证1000ETF</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>98.16</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>010448</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>中邮未来成长混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>29.80</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>006486</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>广发中证1000指数A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>160415</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>华安量化多因子混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>010821</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>东方红多元策略混合B</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>162413</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>华宝中证1000指数</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>006487</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>广发中证1000指数C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>516300</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证1000ETF</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>008441</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>九泰科新优享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>24.41</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>011312</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>东方红启瑞三年持有混合B</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>008442</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>九泰科新优享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>24.41</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6025,36 +5204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009664</t>
+          <t>010595</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富医疗积极成长一年持有期混合A</t>
+          <t>广发成长精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.20</t>
+          <t>101.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.42</t>
+          <t>89.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1975</t>
+          <t>5.3610</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6063,32 +5242,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010595</t>
+          <t>270005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发成长精选混合A</t>
+          <t>广发聚丰混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>112.52</t>
+          <t>68.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>51.23</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.1731</t>
+          <t>3.3856</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -6101,32 +5280,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>270005</t>
+          <t>009664</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发聚丰混合A</t>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>58.55</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>86.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.4884</t>
+          <t>2.8722</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -6139,36 +5318,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>011425</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方绩优成长混合A</t>
+          <t>广发优势成长股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>63.14</t>
+          <t>32.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77.85</t>
+          <t>90.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.9573</t>
+          <t>1.8798</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -6177,36 +5356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>398001</t>
+          <t>270050</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中海优质成长混合</t>
+          <t>广发新经济混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.70</t>
+          <t>33.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.65</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.31</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.4617</t>
+          <t>1.5056</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -6225,22 +5404,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15.44</t>
+          <t>16.08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>89.86</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.4174</t>
+          <t>1.4006</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -6263,26 +5442,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30.38</t>
+          <t>34.87</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.69</t>
+          <t>83.07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.2425</t>
+          <t>1.2239</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -6291,36 +5470,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005347</t>
+          <t>000294</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺德量化优选6个月持有期混合</t>
+          <t>华安生态优先混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>31.74</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.9760</t>
+          <t>1.1807</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -6329,36 +5508,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>270050</t>
+          <t>398001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发新经济混合A</t>
+          <t>中海优质成长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>16.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>92.29</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.9675</t>
+          <t>1.1132</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -6367,36 +5546,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>399011</t>
+          <t>165516</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中海医疗保健主题股票</t>
+          <t>信诚周期轮动混合(LOF)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>17.62</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>92.03</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.6748</t>
+          <t>0.8546</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -6405,32 +5584,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010405</t>
+          <t>001558</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>惠升医药健康6个月持有期混合</t>
+          <t>天弘医疗健康混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21.96</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>34.83</t>
+          <t>89.50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.6676</t>
+          <t>0.7075</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -6443,32 +5622,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>165516</t>
+          <t>009411</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>信诚周期轮动混合(LOF)</t>
+          <t>中银科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>8.30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>70.18</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.6539</t>
+          <t>0.7055</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -6481,36 +5660,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009411</t>
+          <t>550002</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中银科技创新一年定期开放混合</t>
+          <t>信诚精萃成长混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>86.27</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.6378</t>
+          <t>0.6593</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -6519,36 +5698,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001558</t>
+          <t>010654</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天弘医疗健康混合A</t>
+          <t>天弘医药创新混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.6333</t>
+          <t>0.6556</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -6557,36 +5736,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>550002</t>
+          <t>163805</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>信诚精萃成长混合</t>
+          <t>中银动态策略混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15.77</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>82.34</t>
+          <t>89.97</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.6213</t>
+          <t>0.5913</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -6595,36 +5774,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>163805</t>
+          <t>005347</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中银动态策略混合</t>
+          <t>诺德量化优选6个月持有期混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>88.12</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.6185</t>
+          <t>0.4893</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -6633,36 +5812,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>501062</t>
+          <t>001559</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
+          <t>天弘医疗健康混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20.54</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>44.01</t>
+          <t>89.50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.5874</t>
+          <t>0.3823</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -6671,36 +5850,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000878</t>
+          <t>010090</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中海医药健康产业精选灵活配置混合 - A</t>
+          <t>中信建投医药健康混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>86.60</t>
+          <t>94.89</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.5151</t>
+          <t>0.3733</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -6709,36 +5888,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010654</t>
+          <t>163809</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天弘医药创新混合A</t>
+          <t>中银蓝筹精选灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>79.64</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.4764</t>
+          <t>0.3523</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -6747,36 +5926,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>202007</t>
+          <t>090020</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>南方隆元产业主题混合</t>
+          <t>大成健康产业混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>78.81</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.4660</t>
+          <t>0.3381</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -6785,36 +5964,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>200006</t>
+          <t>011426</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>长城消费增值混合</t>
+          <t>广发优势成长股票C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14.59</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>90.63</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.4158</t>
+          <t>0.3173</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -6823,36 +6002,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001559</t>
+          <t>398011</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天弘医疗健康混合C</t>
+          <t>中海分红增利混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.3745</t>
+          <t>0.3099</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -6861,36 +6040,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>007750</t>
+          <t>009665</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>广发优势增长股票</t>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>86.72</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.3458</t>
+          <t>0.3040</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -6899,36 +6078,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>163809</t>
+          <t>000878</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中银蓝筹精选灵活配置混合</t>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>79.27</t>
+          <t>71.37</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.3426</t>
+          <t>0.2999</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -6937,36 +6116,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009665</t>
+          <t>010596</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>汇添富医疗积极成长一年持有期混合C</t>
+          <t>广发成长精选混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>79.42</t>
+          <t>89.97</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.3323</t>
+          <t>0.2809</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -6975,32 +6154,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>550001</t>
+          <t>006267</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>信诚四季红混合</t>
+          <t>诺德量化核心灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>87.55</t>
+          <t>90.84</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.3022</t>
+          <t>0.2721</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -7013,36 +6192,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>004905</t>
+          <t>004040</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华泰柏瑞生物医药灵活配置混合A</t>
+          <t>金鹰医疗健康产业股票A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.2922</t>
+          <t>0.2564</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -7051,36 +6230,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>398011</t>
+          <t>010655</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中海分红增利混合</t>
+          <t>天弘医药创新混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>90.16</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.2595</t>
+          <t>0.2381</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -7089,36 +6268,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>004040</t>
+          <t>550001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金鹰医疗健康产业股票A</t>
+          <t>信诚四季红混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>89.54</t>
+          <t>88.21</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.2115</t>
+          <t>0.1980</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -7127,36 +6306,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>006267</t>
+          <t>240011</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>诺德量化核心灵活配置混合A</t>
+          <t>华宝大盘精选混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>91.80</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.2063</t>
+          <t>0.1618</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -7165,32 +6344,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>000955</t>
+          <t>519673</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>南方产业活力股票</t>
+          <t>银河康乐股票</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>87.47</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.1982</t>
+          <t>0.1521</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -7203,36 +6382,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009913</t>
+          <t>004683</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中信保诚成长动力混合</t>
+          <t>建信高端医疗股票</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>82.25</t>
+          <t>92.04</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.1918</t>
+          <t>0.1401</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -7241,36 +6420,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>005630</t>
+          <t>004041</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华安研究精选混合</t>
+          <t>金鹰医疗健康产业股票C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>80.95</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.1761</t>
+          <t>0.1311</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -7279,36 +6458,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>360005</t>
+          <t>010091</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>光大保德信红利混合</t>
+          <t>中信建投医药健康混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>78.43</t>
+          <t>94.89</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.1695</t>
+          <t>0.1176</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -7317,36 +6496,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>010596</t>
+          <t>010134</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>广发成长精选混合C</t>
+          <t>广发新经济混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>51.23</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.1545</t>
+          <t>0.0978</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -7355,36 +6534,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>000879</t>
+          <t>540009</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中海医药健康产业精选灵活配置混合 - C</t>
+          <t>汇丰晋信消费红利股票</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>86.60</t>
+          <t>91.49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.1459</t>
+          <t>0.0834</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -7393,36 +6572,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>004041</t>
+          <t>000879</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金鹰医疗健康产业股票C</t>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>89.54</t>
+          <t>71.37</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.1319</t>
+          <t>0.0688</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -7431,36 +6610,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>010655</t>
+          <t>006268</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天弘医药创新混合C</t>
+          <t>诺德量化核心灵活配置混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>90.84</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.1226</t>
+          <t>0.0684</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -7469,36 +6648,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>004683</t>
+          <t>001365</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>建信高端医疗股票</t>
+          <t>大成正向回报灵活配置混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>86.12</t>
+          <t>91.89</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.1109</t>
+          <t>0.0670</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -7507,32 +6686,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>006209</t>
+          <t>007903</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
+          <t>长城量化小盘股票</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>83.91</t>
+          <t>83.06</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0955</t>
+          <t>0.0585</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -7555,22 +6734,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>84.66</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0900</t>
+          <t>0.0522</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -7583,36 +6762,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>001298</t>
+          <t>512100</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金鹰民族新兴灵活配置混合</t>
+          <t>南方中证1000ETF</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>88.31</t>
+          <t>99.13</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0698</t>
+          <t>0.0439</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -7621,36 +6800,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>006268</t>
+          <t>910017</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>诺德量化核心灵活配置混合C</t>
+          <t>东方红多元策略混合A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>91.80</t>
+          <t>92.20</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0549</t>
+          <t>0.0288</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -7659,36 +6838,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>009789</t>
+          <t>003284</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>富安达科技创新混合</t>
+          <t>中邮医药健康灵活配置混合</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>80.46</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0417</t>
+          <t>0.0245</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -7697,36 +6876,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>001864</t>
+          <t>910011</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中海魅力长三角灵活配置混合</t>
+          <t>东方红启瑞三年持有混合A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>68.27</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.0368</t>
+          <t>0.0222</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -7735,36 +6914,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>004549</t>
+          <t>010447</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>富安达消费主题灵活配置混合</t>
+          <t>中邮未来成长混合A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>29.80</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>8.37</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0343</t>
+          <t>0.0189</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -7773,36 +6952,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>620002</t>
+          <t>001252</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金元顺安成长动力混合</t>
+          <t>中海进取收益灵活配置混合</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>74.87</t>
+          <t>91.86</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0328</t>
+          <t>0.0166</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -7811,36 +6990,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>512100</t>
+          <t>570006</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>南方中证1000ETF</t>
+          <t>诺德中小盘混合</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>92.41</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0295</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -7849,36 +7028,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>570006</t>
+          <t>620004</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>诺德中小盘混合</t>
+          <t>金元顺安价值增长混合</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.0274</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -7887,32 +7066,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>010134</t>
+          <t>516610</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>广发新经济混合C</t>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>84.84</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.0258</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -7925,36 +7104,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>001252</t>
+          <t>159873</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中海进取收益灵活配置混合</t>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>97.32</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.0241</t>
+          <t>0.0121</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -7963,32 +7142,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>002919</t>
+          <t>010025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>东吴智慧医疗量化策略灵活配置混合</t>
+          <t>广发聚丰混合C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>84.36</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.0236</t>
+          <t>0.0119</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -8001,32 +7180,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>005313</t>
+          <t>001574</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强A</t>
+          <t>中海混改红利主题精选灵活配置混合</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>91.17</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.0230</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -8039,36 +7218,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>620004</t>
+          <t>159845</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金元顺安价值增长混合</t>
+          <t>华夏中证1000ETF</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>83.89</t>
+          <t>98.16</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -8077,36 +7256,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>005314</t>
+          <t>010448</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强C</t>
+          <t>中邮未来成长混合C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>29.80</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -8115,36 +7294,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>006540</t>
+          <t>006486</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>南方绩优成长混合C</t>
+          <t>广发中证1000指数A</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>77.85</t>
+          <t>93.03</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -8153,36 +7332,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>010031</t>
+          <t>160415</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华泰柏瑞生物医药灵活配置混合C</t>
+          <t>华安量化多因子混合（LOF）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -8191,36 +7370,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>001574</t>
+          <t>010821</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中海混改红利主题精选灵活配置混合</t>
+          <t>东方红多元策略混合B</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>92.20</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -8229,36 +7408,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>010025</t>
+          <t>162413</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>广发聚丰混合C</t>
+          <t>华宝中证1000指数</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -8267,36 +7446,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>005290</t>
+          <t>006487</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合A</t>
+          <t>广发中证1000指数C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>93.03</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -8305,36 +7484,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>006486</t>
+          <t>516300</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>广发中证1000指数A</t>
+          <t>华泰柏瑞中证1000ETF</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -8343,36 +7522,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>006487</t>
+          <t>008441</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>广发中证1000指数C</t>
+          <t>九泰科新优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>24.41</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -8381,36 +7560,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>162413</t>
+          <t>011312</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华宝中证1000指数</t>
+          <t>东方红启瑞三年持有混合B</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -8419,36 +7598,34 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>009710</t>
+          <t>008442</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合C</t>
+          <t>九泰科新优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>24.41</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -8457,6 +7634,2494 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1975</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>112.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>51.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1731</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4884</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9573</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4617</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4174</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2425</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9760</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9675</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6748</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6676</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6539</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6378</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6333</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6213</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6185</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>44.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5874</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5151</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4764</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4660</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4158</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3458</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3426</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3323</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3022</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>51.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003769</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
